--- a/Schedule Calculator Pro/bin/Debug/База даних — копия.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/База даних — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2585FED7-CFC3-4AEB-9707-49A3FA48D711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{883D8CC3-F93F-4BA9-A50C-9DB25FD66B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1620" windowWidth="21600" windowHeight="11505" xr2:uid="{107284F5-718C-45BD-85E0-A87AD3143D71}"/>
+    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{C7A0E3F2-9345-4CBE-B2A3-0425BECEA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="209">
   <si>
     <t>Антонова Л.І.</t>
   </si>
   <si>
+    <t>"01011000000101101000000111011011111"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Основи філософських знань </t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>Бенедицький В.Б.</t>
+  </si>
+  <si>
+    <t>"11111111111111111111111111111111111"</t>
   </si>
   <si>
     <t>Основи конструювання ЕОМ</t>
@@ -1003,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FE9AE-0F1A-4A81-B3C2-61589B6099D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468A33A2-61F3-4AE5-9DAE-CC7B1A73D98B}">
   <dimension ref="A1:L540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1012,6 +1018,7 @@
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
@@ -1029,11 +1036,14 @@
       <c r="B1">
         <v>209</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
       <c r="J1">
         <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L1">
         <v>16</v>
@@ -1041,13 +1051,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>16</v>
@@ -1055,7 +1065,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -1067,7 +1077,7 @@
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>16</v>
@@ -1075,7 +1085,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -1087,7 +1097,7 @@
         <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4">
         <v>16</v>
@@ -1095,7 +1105,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -1107,7 +1117,7 @@
         <v>152</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <v>16</v>
@@ -1115,7 +1125,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -1127,7 +1137,7 @@
         <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>16</v>
@@ -1135,7 +1145,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -1144,7 +1154,7 @@
         <v>154</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -1152,13 +1162,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>16</v>
@@ -1166,7 +1176,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -1178,7 +1188,7 @@
         <v>201</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>16</v>
@@ -1186,7 +1196,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -1198,7 +1208,7 @@
         <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10">
         <v>16</v>
@@ -1206,7 +1216,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -1218,7 +1228,7 @@
         <v>203</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>16</v>
@@ -1226,7 +1236,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1235,7 +1245,7 @@
         <v>204</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12">
         <v>16</v>
@@ -1243,13 +1253,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>206</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <v>16</v>
@@ -1257,7 +1267,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -1269,7 +1279,7 @@
         <v>208</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>16</v>
@@ -1277,13 +1287,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <v>16</v>
@@ -1291,13 +1301,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
       <c r="J16">
         <v>213</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -1305,13 +1318,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>214</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L17">
         <v>16</v>
@@ -1319,7 +1332,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -1328,7 +1341,7 @@
         <v>215</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18">
         <v>16</v>
@@ -1336,13 +1349,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L19">
         <v>16</v>
@@ -1350,7 +1363,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>48</v>
@@ -1362,7 +1375,7 @@
         <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -1370,13 +1383,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>16</v>
@@ -1384,7 +1397,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -1396,7 +1409,7 @@
         <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L22">
         <v>16</v>
@@ -1404,13 +1417,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
       </c>
       <c r="J23">
         <v>303</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>16</v>
@@ -1418,13 +1434,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <v>304</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L24">
         <v>16</v>
@@ -1432,7 +1448,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1441,7 +1457,7 @@
         <v>306</v>
       </c>
       <c r="K25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>16</v>
@@ -1449,13 +1465,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
       </c>
       <c r="J26">
         <v>308</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L26">
         <v>16</v>
@@ -1463,7 +1482,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>310</v>
@@ -1471,7 +1490,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -1485,7 +1504,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29">
         <v>16</v>
@@ -1496,7 +1515,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J30">
         <v>321</v>
@@ -1504,7 +1523,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>16</v>
@@ -1518,7 +1537,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J32">
         <v>403</v>
@@ -1526,7 +1545,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>32</v>
@@ -1537,12 +1556,12 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>48</v>
@@ -1550,17 +1569,20 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -1568,7 +1590,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39">
         <v>16</v>
@@ -1579,7 +1601,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>16</v>
@@ -1590,7 +1612,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>16</v>
@@ -1598,7 +1620,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -1609,7 +1631,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>16</v>
@@ -1620,7 +1642,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>16</v>
@@ -1628,12 +1650,12 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1641,7 +1663,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -1649,17 +1671,20 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -1670,12 +1695,12 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>16</v>
@@ -1686,12 +1711,12 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>48</v>
@@ -1702,17 +1727,20 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G57">
         <v>16</v>
@@ -1720,7 +1748,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>16</v>
@@ -1728,7 +1756,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>16</v>
@@ -1736,7 +1764,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>16</v>
@@ -1747,12 +1775,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>16</v>
@@ -1763,7 +1791,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>16</v>
@@ -1774,12 +1802,12 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G65">
         <v>16</v>
@@ -1787,17 +1815,20 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G68">
         <v>16</v>
@@ -1808,7 +1839,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G69">
         <v>16</v>
@@ -1816,7 +1847,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>16</v>
@@ -1824,12 +1855,12 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G72">
         <v>16</v>
@@ -1840,7 +1871,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G73">
         <v>16</v>
@@ -1848,7 +1879,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>16</v>
@@ -1856,12 +1887,12 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G76">
         <v>16</v>
@@ -1872,7 +1903,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G77">
         <v>16</v>
@@ -1880,7 +1911,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>16</v>
@@ -1888,12 +1919,12 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G80">
         <v>16</v>
@@ -1904,17 +1935,20 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G83">
         <v>16</v>
@@ -1925,7 +1959,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>16</v>
@@ -1933,7 +1967,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G85">
         <v>16</v>
@@ -1941,7 +1975,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>32</v>
@@ -1952,7 +1986,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G87">
         <v>16</v>
@@ -1963,7 +1997,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G88">
         <v>16</v>
@@ -1974,12 +2008,12 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G90">
         <v>32</v>
@@ -1990,7 +2024,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>32</v>
@@ -1998,7 +2032,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>32</v>
@@ -2006,7 +2040,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>16</v>
@@ -2017,7 +2051,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <v>16</v>
@@ -2028,7 +2062,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G95">
         <v>16</v>
@@ -2039,17 +2073,20 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G98">
         <v>16</v>
@@ -2060,7 +2097,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G99">
         <v>16</v>
@@ -2071,7 +2108,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G100">
         <v>16</v>
@@ -2079,7 +2116,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G101">
         <v>16</v>
@@ -2090,7 +2127,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G102">
         <v>16</v>
@@ -2098,7 +2135,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>32</v>
@@ -2109,7 +2146,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G104">
         <v>16</v>
@@ -2120,7 +2157,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>16</v>
@@ -2128,12 +2165,12 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G107">
         <v>48</v>
@@ -2144,7 +2181,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>32</v>
@@ -2155,17 +2192,20 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111">
         <v>16</v>
@@ -2176,12 +2216,12 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G113">
         <v>32</v>
@@ -2192,12 +2232,12 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G115">
         <v>16</v>
@@ -2208,12 +2248,12 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>32</v>
@@ -2221,12 +2261,12 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G119">
         <v>16</v>
@@ -2237,17 +2277,20 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G122">
         <v>16</v>
@@ -2255,7 +2298,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G123">
         <v>16</v>
@@ -2266,17 +2309,20 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G126">
         <v>32</v>
@@ -2287,12 +2333,12 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G128">
         <v>16</v>
@@ -2303,12 +2349,12 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G130">
         <v>32</v>
@@ -2319,17 +2365,20 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G133">
         <v>16</v>
@@ -2340,7 +2389,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G134">
         <v>32</v>
@@ -2351,12 +2400,12 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G136">
         <v>32</v>
@@ -2367,12 +2416,12 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G138">
         <v>32</v>
@@ -2383,12 +2432,12 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G140">
         <v>32</v>
@@ -2399,17 +2448,20 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G143">
         <v>16</v>
@@ -2417,7 +2469,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G144">
         <v>16</v>
@@ -2425,7 +2477,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>16</v>
@@ -2433,7 +2485,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>16</v>
@@ -2444,17 +2496,20 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>16</v>
@@ -2462,7 +2517,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>16</v>
@@ -2470,7 +2525,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>16</v>
@@ -2481,12 +2536,12 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G153">
         <v>16</v>
@@ -2497,7 +2552,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G154">
         <v>16</v>
@@ -2508,7 +2563,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G155">
         <v>16</v>
@@ -2519,7 +2574,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>16</v>
@@ -2530,7 +2585,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G157">
         <v>16</v>
@@ -2541,12 +2596,12 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G159">
         <v>8</v>
@@ -2557,12 +2612,12 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G161">
         <v>16</v>
@@ -2570,7 +2625,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G162">
         <v>32</v>
@@ -2578,12 +2633,12 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>16</v>
@@ -2591,12 +2646,12 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G166">
         <v>48</v>
@@ -2607,20 +2662,23 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E168" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G169">
         <v>32</v>
@@ -2628,7 +2686,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <v>32</v>
@@ -2636,7 +2694,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G171">
         <v>32</v>
@@ -2647,7 +2705,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G172">
         <v>32</v>
@@ -2655,7 +2713,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G173">
         <v>32</v>
@@ -2666,7 +2724,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G174">
         <v>32</v>
@@ -2677,7 +2735,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G175">
         <v>32</v>
@@ -2688,17 +2746,20 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G178">
         <v>16</v>
@@ -2709,12 +2770,12 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G180">
         <v>32</v>
@@ -2725,17 +2786,20 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G183">
         <v>16</v>
@@ -2746,12 +2810,12 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G185">
         <v>16</v>
@@ -2762,17 +2826,20 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G188">
         <v>16</v>
@@ -2780,12 +2847,12 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G190">
         <v>32</v>
@@ -2796,7 +2863,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G191">
         <v>32</v>
@@ -2804,12 +2871,12 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G193">
         <v>16</v>
@@ -2820,17 +2887,20 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G196">
         <v>32</v>
@@ -2841,17 +2911,20 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>16</v>
@@ -2862,17 +2935,20 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G202">
         <v>32</v>
@@ -2880,12 +2956,12 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G204">
         <v>32</v>
@@ -2896,20 +2972,23 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B205">
         <v>117</v>
       </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>48</v>
@@ -2917,12 +2996,12 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G209">
         <v>32</v>
@@ -2930,12 +3009,12 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G211">
         <v>32</v>
@@ -2943,12 +3022,12 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G213">
         <v>48</v>
@@ -2956,22 +3035,28 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F217" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G217">
         <v>16</v>
@@ -2982,7 +3067,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F218" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G218">
         <v>16</v>
@@ -2990,7 +3075,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F219" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G219">
         <v>16</v>
@@ -2998,7 +3083,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G220">
         <v>16</v>
@@ -3009,12 +3094,12 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F222" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G222">
         <v>16</v>
@@ -3025,7 +3110,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F223" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G223">
         <v>16</v>
@@ -3033,7 +3118,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G224">
         <v>16</v>
@@ -3044,7 +3129,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F225" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G225">
         <v>16</v>
@@ -3052,7 +3137,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G226">
         <v>16</v>
@@ -3063,7 +3148,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F227" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G227">
         <v>16</v>
@@ -3074,7 +3159,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F228" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G228">
         <v>16</v>
@@ -3085,7 +3170,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G229">
         <v>16</v>
@@ -3096,12 +3181,12 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G231">
         <v>32</v>
@@ -3112,12 +3197,15 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E233">
         <v>311</v>
@@ -3125,7 +3213,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G234">
         <v>32</v>
@@ -3136,7 +3224,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G235">
         <v>32</v>
@@ -3144,12 +3232,12 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G237">
         <v>16</v>
@@ -3157,12 +3245,12 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>32</v>
@@ -3170,12 +3258,12 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F241" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G241">
         <v>32</v>
@@ -3183,12 +3271,12 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G243">
         <v>16</v>
@@ -3196,17 +3284,20 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G246">
         <v>16</v>
@@ -3217,12 +3308,12 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F248" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G248">
         <v>16</v>
@@ -3233,7 +3324,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F249" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G249">
         <v>16</v>
@@ -3244,7 +3335,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F250" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G250">
         <v>16</v>
@@ -3255,12 +3346,12 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F252" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G252">
         <v>16</v>
@@ -3271,12 +3362,12 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G254">
         <v>32</v>
@@ -3287,17 +3378,20 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F257" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G257">
         <v>16</v>
@@ -3308,17 +3402,20 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F260" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G260">
         <v>16</v>
@@ -3329,12 +3426,12 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F262" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G262">
         <v>32</v>
@@ -3345,12 +3442,12 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F264" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G264">
         <v>32</v>
@@ -3361,12 +3458,12 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F266" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G266">
         <v>32</v>
@@ -3377,12 +3474,12 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F268" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G268">
         <v>16</v>
@@ -3393,12 +3490,12 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F270" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G270">
         <v>16</v>
@@ -3409,12 +3506,12 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F272" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G272">
         <v>32</v>
@@ -3425,17 +3522,20 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F275" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G275">
         <v>16</v>
@@ -3446,7 +3546,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F276" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G276">
         <v>16</v>
@@ -3454,7 +3554,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F277" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G277">
         <v>16</v>
@@ -3465,12 +3565,12 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F279" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G279">
         <v>16</v>
@@ -3478,17 +3578,20 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F282" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G282">
         <v>16</v>
@@ -3499,17 +3602,20 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="C283" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F285" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G285">
         <v>16</v>
@@ -3520,7 +3626,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F286" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G286">
         <v>16</v>
@@ -3528,7 +3634,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F287" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G287">
         <v>16</v>
@@ -3536,7 +3642,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F288" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G288">
         <v>16</v>
@@ -3544,7 +3650,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F289" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G289">
         <v>16</v>
@@ -3555,17 +3661,20 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F292" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G292">
         <v>16</v>
@@ -3573,7 +3682,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F293" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G293">
         <v>16</v>
@@ -3581,7 +3690,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F294" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G294">
         <v>16</v>
@@ -3592,12 +3701,12 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F296" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G296">
         <v>16</v>
@@ -3605,7 +3714,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F297" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G297">
         <v>16</v>
@@ -3613,7 +3722,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F298" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G298">
         <v>16</v>
@@ -3624,12 +3733,12 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F300" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G300">
         <v>16</v>
@@ -3640,7 +3749,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F301" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G301">
         <v>16</v>
@@ -3651,7 +3760,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F302" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G302">
         <v>16</v>
@@ -3662,7 +3771,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F303" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G303">
         <v>16</v>
@@ -3673,7 +3782,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F304" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G304">
         <v>16</v>
@@ -3684,20 +3793,23 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="C305" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E306" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F307" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G307">
         <v>32</v>
@@ -3705,7 +3817,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F308" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G308">
         <v>32</v>
@@ -3713,7 +3825,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F309" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G309">
         <v>32</v>
@@ -3721,7 +3833,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F310" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G310">
         <v>32</v>
@@ -3729,7 +3841,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F311" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G311">
         <v>16</v>
@@ -3740,7 +3852,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F312" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G312">
         <v>32</v>
@@ -3751,7 +3863,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F313" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G313">
         <v>32</v>
@@ -3762,7 +3874,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F314" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G314">
         <v>32</v>
@@ -3773,7 +3885,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F315" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G315">
         <v>32</v>
@@ -3784,7 +3896,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G316">
         <v>32</v>
@@ -3792,17 +3904,20 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="C317" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F319" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G319">
         <v>16</v>
@@ -3813,12 +3928,12 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F321" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G321">
         <v>16</v>
@@ -3829,7 +3944,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F322" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G322">
         <v>16</v>
@@ -3840,12 +3955,12 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F324" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G324">
         <v>16</v>
@@ -3856,12 +3971,12 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F326" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G326">
         <v>16</v>
@@ -3872,17 +3987,20 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="C327" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F329" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G329">
         <v>32</v>
@@ -3890,17 +4008,20 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F332" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G332">
         <v>32</v>
@@ -3911,7 +4032,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F333" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G333">
         <v>16</v>
@@ -3922,7 +4043,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F334" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G334">
         <v>16</v>
@@ -3930,7 +4051,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F335" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G335">
         <v>32</v>
@@ -3938,7 +4059,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F336" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G336">
         <v>32</v>
@@ -3949,7 +4070,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F337" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G337">
         <v>16</v>
@@ -3960,7 +4081,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F338" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G338">
         <v>16</v>
@@ -3968,17 +4089,20 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F341" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G341">
         <v>16</v>
@@ -3986,7 +4110,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F342" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G342">
         <v>16</v>
@@ -3994,12 +4118,12 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F344" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G344">
         <v>32</v>
@@ -4007,7 +4131,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F345" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G345">
         <v>32</v>
@@ -4018,7 +4142,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F346" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G346">
         <v>16</v>
@@ -4026,12 +4150,12 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F348" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G348">
         <v>16</v>
@@ -4042,12 +4166,12 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F350" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G350">
         <v>16</v>
@@ -4058,12 +4182,12 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F352" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G352">
         <v>16</v>
@@ -4074,17 +4198,20 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="C353" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F355" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G355">
         <v>64</v>
@@ -4092,12 +4219,12 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F357" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G357">
         <v>48</v>
@@ -4105,20 +4232,23 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E359" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F360" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G360">
         <v>32</v>
@@ -4129,7 +4259,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F361" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G361">
         <v>32</v>
@@ -4140,7 +4270,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F362" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G362">
         <v>32</v>
@@ -4148,7 +4278,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G363">
         <v>32</v>
@@ -4159,7 +4289,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F364" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G364">
         <v>32</v>
@@ -4167,7 +4297,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F365" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G365">
         <v>32</v>
@@ -4178,7 +4308,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F366" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G366">
         <v>32</v>
@@ -4189,7 +4319,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F367" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G367">
         <v>32</v>
@@ -4200,7 +4330,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F368" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G368">
         <v>32</v>
@@ -4208,17 +4338,20 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="C369" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F371" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G371">
         <v>16</v>
@@ -4229,7 +4362,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F372" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G372">
         <v>16</v>
@@ -4237,7 +4370,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F373" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G373">
         <v>16</v>
@@ -4245,7 +4378,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F374" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G374">
         <v>16</v>
@@ -4253,7 +4386,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F375" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G375">
         <v>16</v>
@@ -4261,7 +4394,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F376" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G376">
         <v>16</v>
@@ -4272,17 +4405,20 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="C377" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F379" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G379">
         <v>32</v>
@@ -4293,7 +4429,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F380" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G380">
         <v>16</v>
@@ -4304,7 +4440,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F381" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G381">
         <v>32</v>
@@ -4312,7 +4448,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F382" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G382">
         <v>16</v>
@@ -4323,7 +4459,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F383" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G383">
         <v>32</v>
@@ -4331,7 +4467,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F384" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G384">
         <v>16</v>
@@ -4342,7 +4478,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F385" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G385">
         <v>32</v>
@@ -4350,7 +4486,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F386" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G386">
         <v>16</v>
@@ -4361,7 +4497,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F387" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G387">
         <v>16</v>
@@ -4369,17 +4505,20 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="C388" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F390" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G390">
         <v>16</v>
@@ -4390,7 +4529,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F391" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G391">
         <v>32</v>
@@ -4401,12 +4540,12 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F393" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G393">
         <v>8</v>
@@ -4417,12 +4556,12 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F395" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G395">
         <v>16</v>
@@ -4430,12 +4569,12 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F397" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G397">
         <v>32</v>
@@ -4443,12 +4582,12 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F399" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G399">
         <v>32</v>
@@ -4459,12 +4598,12 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F401" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G401">
         <v>32</v>
@@ -4475,12 +4614,12 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F403" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G403">
         <v>16</v>
@@ -4491,17 +4630,20 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="C404" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F406" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G406">
         <v>32</v>
@@ -4512,12 +4654,15 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="C407" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E408">
         <v>416</v>
@@ -4525,7 +4670,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F409" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G409">
         <v>16</v>
@@ -4536,7 +4681,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F410" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G410">
         <v>16</v>
@@ -4547,7 +4692,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F411" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G411">
         <v>16</v>
@@ -4555,7 +4700,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F412" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G412">
         <v>16</v>
@@ -4566,7 +4711,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F413" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G413">
         <v>16</v>
@@ -4574,7 +4719,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F414" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G414">
         <v>16</v>
@@ -4585,7 +4730,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F415" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G415">
         <v>16</v>
@@ -4593,7 +4738,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F416" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G416">
         <v>16</v>
@@ -4604,7 +4749,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F417" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G417">
         <v>16</v>
@@ -4612,12 +4757,12 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F419" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G419">
         <v>16</v>
@@ -4625,7 +4770,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F420" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G420">
         <v>16</v>
@@ -4633,7 +4778,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F421" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G421">
         <v>16</v>
@@ -4644,17 +4789,20 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="C422" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F424" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G424">
         <v>16</v>
@@ -4665,7 +4813,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F425" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G425">
         <v>32</v>
@@ -4676,12 +4824,12 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F427" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G427">
         <v>16</v>
@@ -4692,7 +4840,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F428" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G428">
         <v>16</v>
@@ -4703,12 +4851,12 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F430" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G430">
         <v>32</v>
@@ -4716,17 +4864,20 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="C431" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F433" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G433">
         <v>32</v>
@@ -4734,7 +4885,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F434" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G434">
         <v>32</v>
@@ -4745,7 +4896,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F435" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G435">
         <v>32</v>
@@ -4756,7 +4907,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F436" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G436">
         <v>32</v>
@@ -4767,7 +4918,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F437" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G437">
         <v>32</v>
@@ -4778,12 +4929,12 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F439" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G439">
         <v>16</v>
@@ -4791,12 +4942,15 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="C440" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E441">
         <v>405</v>
@@ -4804,7 +4958,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F442" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G442">
         <v>16</v>
@@ -4815,7 +4969,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F443" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G443">
         <v>16</v>
@@ -4826,7 +4980,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F444" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G444">
         <v>16</v>
@@ -4834,7 +4988,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F445" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G445">
         <v>16</v>
@@ -4845,7 +4999,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F446" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G446">
         <v>16</v>
@@ -4853,7 +5007,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F447" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G447">
         <v>16</v>
@@ -4864,7 +5018,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F448" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G448">
         <v>16</v>
@@ -4872,7 +5026,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F449" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G449">
         <v>16</v>
@@ -4883,7 +5037,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F450" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G450">
         <v>16</v>
@@ -4891,7 +5045,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F451" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G451">
         <v>16</v>
@@ -4902,7 +5056,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F452" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G452">
         <v>16</v>
@@ -4913,7 +5067,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F453" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G453">
         <v>16</v>
@@ -4924,7 +5078,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F454" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G454">
         <v>16</v>
@@ -4932,12 +5086,15 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="C455" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E456">
         <v>108</v>
@@ -4945,7 +5102,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F457" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G457">
         <v>16</v>
@@ -4956,7 +5113,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F458" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G458">
         <v>16</v>
@@ -4964,7 +5121,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F459" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G459">
         <v>16</v>
@@ -4972,7 +5129,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F460" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G460">
         <v>16</v>
@@ -4980,7 +5137,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F461" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G461">
         <v>16</v>
@@ -4988,7 +5145,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F462" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G462">
         <v>16</v>
@@ -4999,17 +5156,20 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="C463" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F465" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G465">
         <v>32</v>
@@ -5017,12 +5177,15 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="C466" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E467">
         <v>104</v>
@@ -5030,7 +5193,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F468" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G468">
         <v>32</v>
@@ -5041,7 +5204,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F469" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G469">
         <v>32</v>
@@ -5049,7 +5212,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F470" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G470">
         <v>16</v>
@@ -5060,12 +5223,12 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F472" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G472">
         <v>32</v>
@@ -5076,12 +5239,15 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="C473" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D474" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E474">
         <v>416</v>
@@ -5089,7 +5255,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F475" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G475">
         <v>16</v>
@@ -5100,7 +5266,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F476" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G476">
         <v>16</v>
@@ -5108,7 +5274,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F477" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G477">
         <v>16</v>
@@ -5119,7 +5285,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F478" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G478">
         <v>16</v>
@@ -5127,7 +5293,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F479" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G479">
         <v>16</v>
@@ -5138,7 +5304,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F480" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G480">
         <v>16</v>
@@ -5149,7 +5315,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F481" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G481">
         <v>16</v>
@@ -5160,7 +5326,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F482" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G482">
         <v>16</v>
@@ -5171,12 +5337,12 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F484" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G484">
         <v>16</v>
@@ -5187,7 +5353,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F485" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G485">
         <v>16</v>
@@ -5198,17 +5364,20 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="C486" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D487" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F488" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G488">
         <v>32</v>
@@ -5219,12 +5388,12 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D489" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F490" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G490">
         <v>64</v>
@@ -5232,12 +5401,12 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D491" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F492" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G492">
         <v>32</v>
@@ -5245,17 +5414,20 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="C493" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D494" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F495" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G495">
         <v>16</v>
@@ -5266,12 +5438,12 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D496" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F497" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G497">
         <v>16</v>
@@ -5279,12 +5451,12 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D498" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F499" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G499">
         <v>32</v>
@@ -5295,17 +5467,20 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="C500" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D501" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F502" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G502">
         <v>16</v>
@@ -5316,7 +5491,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D503" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E503">
         <v>211</v>
@@ -5324,7 +5499,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F504" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G504">
         <v>16</v>
@@ -5335,12 +5510,12 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D505" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F506" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G506">
         <v>16</v>
@@ -5351,12 +5526,12 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D507" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F508" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G508">
         <v>32</v>
@@ -5367,12 +5542,12 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D509" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F510" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G510">
         <v>16</v>
@@ -5380,7 +5555,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F511" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G511">
         <v>16</v>
@@ -5388,7 +5563,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F512" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G512">
         <v>16</v>
@@ -5399,17 +5574,20 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="C513" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D514" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F515" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G515">
         <v>16</v>
@@ -5417,7 +5595,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D516" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E516">
         <v>416</v>
@@ -5425,7 +5603,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F517" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G517">
         <v>16</v>
@@ -5436,7 +5614,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F518" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G518">
         <v>16</v>
@@ -5444,7 +5622,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F519" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G519">
         <v>16</v>
@@ -5452,7 +5630,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F520" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G520">
         <v>16</v>
@@ -5460,7 +5638,7 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F521" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G521">
         <v>16</v>
@@ -5468,7 +5646,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F522" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G522">
         <v>16</v>
@@ -5476,7 +5654,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F523" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G523">
         <v>16</v>
@@ -5487,7 +5665,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F524" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G524">
         <v>16</v>
@@ -5498,7 +5676,7 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F525" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G525">
         <v>16</v>
@@ -5509,7 +5687,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F526" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G526">
         <v>16</v>
@@ -5520,7 +5698,7 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F527" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G527">
         <v>16</v>
@@ -5531,12 +5709,12 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D528" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F529" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G529">
         <v>16</v>
@@ -5547,12 +5725,15 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="C530" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D531" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E531">
         <v>106</v>
@@ -5560,7 +5741,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F532" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G532">
         <v>16</v>
@@ -5571,7 +5752,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F533" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G533">
         <v>16</v>
@@ -5579,7 +5760,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F534" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G534">
         <v>16</v>
@@ -5590,12 +5771,12 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D535" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F536" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G536">
         <v>16</v>
@@ -5606,12 +5787,12 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D537" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F538" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G538">
         <v>32</v>
@@ -5622,12 +5803,12 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D539" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F540" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G540">
         <v>32</v>
